--- a/Revision_Correlations.xlsx
+++ b/Revision_Correlations.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lintu\Documents\Adolescent_psychiatric_prevalence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3961AFD-1B00-47DE-82A2-41939C266678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535C654-DA75-4D6C-9E4C-2A7E4D116138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="495" windowWidth="18645" windowHeight="19995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="885" windowWidth="18645" windowHeight="19995" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pearson" sheetId="5" r:id="rId1"/>
     <sheet name="Spearman" sheetId="3" r:id="rId2"/>
     <sheet name="Polychoric" sheetId="1" r:id="rId3"/>
     <sheet name="Polychoric thresholds" sheetId="2" r:id="rId4"/>
-    <sheet name="Sums and subscales" sheetId="4" r:id="rId5"/>
+    <sheet name="Sums and subscales (Pearson)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="241">
   <si>
     <t>BDI1</t>
   </si>
@@ -628,9 +628,6 @@
     <t>PQB21|t5</t>
   </si>
   <si>
-    <t>PQBsum_cust</t>
-  </si>
-  <si>
     <t>PQBsensdist</t>
   </si>
   <si>
@@ -658,14 +655,110 @@
     <t>BDIsum</t>
   </si>
   <si>
-    <t>PQBsum (without grandiosity)</t>
+    <t>PQBsum</t>
+  </si>
+  <si>
+    <t>BDI cognitive</t>
+  </si>
+  <si>
+    <t>BDI somatic-affective</t>
+  </si>
+  <si>
+    <t>BDI guilty-punishment</t>
+  </si>
+  <si>
+    <t>BDI sum</t>
+  </si>
+  <si>
+    <t>All correlations were significant at P&lt;.001, except PQ-B grandiosity and BDI cognitive (P=0.17) and PQ-B grandiosity and BDI total sum (P=0.02).</t>
+  </si>
+  <si>
+    <t>PQ-B sum (without grandiosity)</t>
+  </si>
+  <si>
+    <t>PQ-B sensory distortion</t>
+  </si>
+  <si>
+    <t>PQ-B paranoia</t>
+  </si>
+  <si>
+    <t>PQ-B disorg speech</t>
+  </si>
+  <si>
+    <t>PQ-B grandiosity</t>
+  </si>
+  <si>
+    <t>PQ-B unusual thought</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>Hopeless</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Anheodnic</t>
+  </si>
+  <si>
+    <t>Worthless</t>
+  </si>
+  <si>
+    <t>Self-Punish</t>
+  </si>
+  <si>
+    <t>Self-Hatred</t>
+  </si>
+  <si>
+    <t>Self-Blame</t>
+  </si>
+  <si>
+    <t>Suicidality</t>
+  </si>
+  <si>
+    <t>Cannot cry</t>
+  </si>
+  <si>
+    <t>Flat. Emot.</t>
+  </si>
+  <si>
+    <t>Disinterest</t>
+  </si>
+  <si>
+    <t>Indecisive</t>
+  </si>
+  <si>
+    <t>Body-im</t>
+  </si>
+  <si>
+    <t>Cannot work</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>Tired</t>
+  </si>
+  <si>
+    <t>Appetite</t>
+  </si>
+  <si>
+    <t>Weight change</t>
+  </si>
+  <si>
+    <t>Somatic worry</t>
+  </si>
+  <si>
+    <t>Sex-life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,16 +766,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -690,12 +802,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -978,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BCAE39-9216-496C-B9D8-4A0518422A98}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -11252,11 +11400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AO41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -11380,9 +11531,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11505,9 +11656,9 @@
         <v>0.22397810239260901</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B3">
         <v>0.75172726024607095</v>
@@ -11630,9 +11781,9 @@
         <v>0.18081897031670699</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="B4">
         <v>0.75902234625142795</v>
@@ -11755,9 +11906,9 @@
         <v>0.23834723862134999</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B5">
         <v>0.78588887669613505</v>
@@ -11880,9 +12031,9 @@
         <v>0.21937105469786899</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B6">
         <v>0.803626617024922</v>
@@ -12005,9 +12156,9 @@
         <v>0.184116834286423</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="B7">
         <v>0.53960325689437605</v>
@@ -12130,9 +12281,9 @@
         <v>0.32497625728298501</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B8">
         <v>0.76550078967260904</v>
@@ -12255,9 +12406,9 @@
         <v>0.21454953969419199</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="B9">
         <v>0.75211034239037799</v>
@@ -12380,9 +12531,9 @@
         <v>0.20744458111042</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="B10">
         <v>0.72884018484881197</v>
@@ -12505,9 +12656,9 @@
         <v>0.25519859652157401</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B11">
         <v>0.69084179456157702</v>
@@ -12630,9 +12781,9 @@
         <v>0.23816965399817999</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
+    <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B12">
         <v>0.60293509735790396</v>
@@ -12755,9 +12906,9 @@
         <v>0.265293728608269</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
+    <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B13">
         <v>0.58297686418793304</v>
@@ -12880,9 +13031,9 @@
         <v>0.25189320956819999</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
+    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B14">
         <v>0.61466691839858001</v>
@@ -13005,9 +13156,9 @@
         <v>0.22256499455985301</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
+    <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B15">
         <v>0.60776472542736504</v>
@@ -13130,9 +13281,9 @@
         <v>0.22865525024672401</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
+    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B16">
         <v>0.61065064971462701</v>
@@ -13255,9 +13406,9 @@
         <v>0.28999872707063901</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
+    <row r="17" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B17">
         <v>0.52188560509941295</v>
@@ -13380,9 +13531,9 @@
         <v>0.278553350887142</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
+    <row r="18" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B18">
         <v>0.67914414101790399</v>
@@ -13505,9 +13656,9 @@
         <v>0.25108524319043102</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
+    <row r="19" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B19">
         <v>0.55994395985648404</v>
@@ -13630,9 +13781,9 @@
         <v>0.27226365444473799</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+    <row r="20" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B20">
         <v>0.26212028793624398</v>
@@ -13755,9 +13906,9 @@
         <v>-1.48590520604825E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
+    <row r="21" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B21">
         <v>0.52114766893280895</v>
@@ -13880,9 +14031,9 @@
         <v>0.35105206599008698</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
+    <row r="22" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B22">
         <v>0.48292716470869201</v>
@@ -14006,7 +14157,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -16382,6 +16533,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17671,400 +17823,420 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B05040A-C917-485C-B7FE-FA94BE5F84A3}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A12" sqref="A12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.815911108</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.62052937799999996</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.51862850199999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.36978034100000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.84331405800000003</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.45530981100000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.52059512100000005</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.51128471600000003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.52246936899999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.815911108</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.38160823999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.41439913299999998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.30000031999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.67077567100000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.27752890099999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.340055844</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.33792841800000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.33451768700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.62052937799999996</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38160823999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.38529488499999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.222527318</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.53695501899999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.39905965399999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.39493440000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.387869927</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.415933524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.51862850199999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.41439913299999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.38529488499999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25490965900000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.42287959800000002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.183720786</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.27125027200000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.23704162000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.24980253299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.36978034100000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.30000031999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.222527318</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.25490965900000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.34934738900000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6.9606351999999996E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.146885983</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.14159089699999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.122659142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.84331405800000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.67077567100000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.53695501899999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.42287959800000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.34934738900000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.39911857000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.48254624499999998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.46462652500000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.47219709300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B2">
+      <c r="B8" s="2">
+        <v>0.45530981100000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.27752890099999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.39905965399999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.183720786</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.9606351999999996E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.39911857000000001</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.815911108</v>
-      </c>
-      <c r="D2">
-        <v>0.62052937799999996</v>
-      </c>
-      <c r="E2">
-        <v>0.51862850199999999</v>
-      </c>
-      <c r="F2">
-        <v>0.36978034100000001</v>
-      </c>
-      <c r="G2">
-        <v>0.84331405800000003</v>
-      </c>
-      <c r="H2">
-        <v>0.45530981100000001</v>
-      </c>
-      <c r="I2">
+      <c r="I8" s="2">
+        <v>0.86204939400000002</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.83992727700000003</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.95732231099999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.52059512100000005</v>
       </c>
-      <c r="J2">
+      <c r="C9" s="2">
+        <v>0.340055844</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.39493440000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.27125027200000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.146885983</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.48254624499999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.86204939400000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.82423689600000005</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.96100237799999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="2">
         <v>0.51128471600000003</v>
       </c>
-      <c r="K2">
+      <c r="C10" s="2">
+        <v>0.33792841800000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.387869927</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.23704162000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.14159089699999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.46462652500000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.83992727700000003</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.82423689600000005</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.90286360899999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.52246936899999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3">
-        <v>0.815911108</v>
-      </c>
-      <c r="C3">
+      <c r="C11" s="4">
+        <v>0.33451768700000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.415933524</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.24980253299999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.122659142</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.47219709300000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.95732231099999998</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.96100237799999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.90286360899999996</v>
+      </c>
+      <c r="K11" s="4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.38160823999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.41439913299999998</v>
-      </c>
-      <c r="F3">
-        <v>0.30000031999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.67077567100000002</v>
-      </c>
-      <c r="H3">
-        <v>0.27752890099999999</v>
-      </c>
-      <c r="I3">
-        <v>0.340055844</v>
-      </c>
-      <c r="J3">
-        <v>0.33792841800000001</v>
-      </c>
-      <c r="K3">
-        <v>0.33451768700000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4">
-        <v>0.62052937799999996</v>
-      </c>
-      <c r="C4">
-        <v>0.38160823999999999</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.38529488499999998</v>
-      </c>
-      <c r="F4">
-        <v>0.222527318</v>
-      </c>
-      <c r="G4">
-        <v>0.53695501899999998</v>
-      </c>
-      <c r="H4">
-        <v>0.39905965399999999</v>
-      </c>
-      <c r="I4">
-        <v>0.39493440000000002</v>
-      </c>
-      <c r="J4">
-        <v>0.387869927</v>
-      </c>
-      <c r="K4">
-        <v>0.415933524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5">
-        <v>0.51862850199999999</v>
-      </c>
-      <c r="C5">
-        <v>0.41439913299999998</v>
-      </c>
-      <c r="D5">
-        <v>0.38529488499999998</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.25490965900000001</v>
-      </c>
-      <c r="G5">
-        <v>0.42287959800000002</v>
-      </c>
-      <c r="H5">
-        <v>0.183720786</v>
-      </c>
-      <c r="I5">
-        <v>0.27125027200000001</v>
-      </c>
-      <c r="J5">
-        <v>0.23704162000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.24980253299999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>0.36978034100000001</v>
-      </c>
-      <c r="C6">
-        <v>0.30000031999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.222527318</v>
-      </c>
-      <c r="E6">
-        <v>0.25490965900000001</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.34934738900000001</v>
-      </c>
-      <c r="H6">
-        <v>6.9606351999999996E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.146885983</v>
-      </c>
-      <c r="J6">
-        <v>0.14159089699999999</v>
-      </c>
-      <c r="K6">
-        <v>0.122659142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7">
-        <v>0.84331405800000003</v>
-      </c>
-      <c r="C7">
-        <v>0.67077567100000002</v>
-      </c>
-      <c r="D7">
-        <v>0.53695501899999998</v>
-      </c>
-      <c r="E7">
-        <v>0.42287959800000002</v>
-      </c>
-      <c r="F7">
-        <v>0.34934738900000001</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.39911857000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.48254624499999998</v>
-      </c>
-      <c r="J7">
-        <v>0.46462652500000001</v>
-      </c>
-      <c r="K7">
-        <v>0.47219709300000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8">
-        <v>0.45530981100000001</v>
-      </c>
-      <c r="C8">
-        <v>0.27752890099999999</v>
-      </c>
-      <c r="D8">
-        <v>0.39905965399999999</v>
-      </c>
-      <c r="E8">
-        <v>0.183720786</v>
-      </c>
-      <c r="F8">
-        <v>6.9606351999999996E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.39911857000000001</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0.86204939400000002</v>
-      </c>
-      <c r="J8">
-        <v>0.83992727700000003</v>
-      </c>
-      <c r="K8">
-        <v>0.95732231099999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9">
-        <v>0.52059512100000005</v>
-      </c>
-      <c r="C9">
-        <v>0.340055844</v>
-      </c>
-      <c r="D9">
-        <v>0.39493440000000002</v>
-      </c>
-      <c r="E9">
-        <v>0.27125027200000001</v>
-      </c>
-      <c r="F9">
-        <v>0.146885983</v>
-      </c>
-      <c r="G9">
-        <v>0.48254624499999998</v>
-      </c>
-      <c r="H9">
-        <v>0.86204939400000002</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.82423689600000005</v>
-      </c>
-      <c r="K9">
-        <v>0.96100237799999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10">
-        <v>0.51128471600000003</v>
-      </c>
-      <c r="C10">
-        <v>0.33792841800000001</v>
-      </c>
-      <c r="D10">
-        <v>0.387869927</v>
-      </c>
-      <c r="E10">
-        <v>0.23704162000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.14159089699999999</v>
-      </c>
-      <c r="G10">
-        <v>0.46462652500000001</v>
-      </c>
-      <c r="H10">
-        <v>0.83992727700000003</v>
-      </c>
-      <c r="I10">
-        <v>0.82423689600000005</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.90286360899999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11">
-        <v>0.52246936899999996</v>
-      </c>
-      <c r="C11">
-        <v>0.33451768700000001</v>
-      </c>
-      <c r="D11">
-        <v>0.415933524</v>
-      </c>
-      <c r="E11">
-        <v>0.24980253299999999</v>
-      </c>
-      <c r="F11">
-        <v>0.122659142</v>
-      </c>
-      <c r="G11">
-        <v>0.47219709300000001</v>
-      </c>
-      <c r="H11">
-        <v>0.95732231099999998</v>
-      </c>
-      <c r="I11">
-        <v>0.96100237799999999</v>
-      </c>
-      <c r="J11">
-        <v>0.90286360899999996</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:K12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>